--- a/2session/excelFilesAndScriptDB/Excel/мероприятия(изм).xlsx
+++ b/2session/excelFilesAndScriptDB/Excel/мероприятия(изм).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\source\repos\KuzminWorkOnUP\2session\excelFilesAndScriptDB\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{97EEE924-AD77-4F7C-9FCB-CCBA59775458}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9186A7-BBE0-42BC-9992-13928EF39148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1104" windowWidth="21024" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="План мероприятий" sheetId="2" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="98">
   <si>
     <t>Митап / Бесплатное</t>
   </si>
@@ -313,9 +313,6 @@
     <t>Событие</t>
   </si>
   <si>
-    <t>DAYS</t>
-  </si>
-  <si>
     <t>№</t>
   </si>
   <si>
@@ -380,6 +377,72 @@
   </si>
   <si>
     <t xml:space="preserve">Презентационная сессия «TTD: технологии для жизни 2022» </t>
+  </si>
+  <si>
+    <t>Фото</t>
+  </si>
+  <si>
+    <t>Направление</t>
+  </si>
+  <si>
+    <t>2.jpg</t>
+  </si>
+  <si>
+    <t>1.jpg</t>
+  </si>
+  <si>
+    <t>3.jpg</t>
+  </si>
+  <si>
+    <t>4.jpg</t>
+  </si>
+  <si>
+    <t>5.jpg</t>
+  </si>
+  <si>
+    <t>6.jpg</t>
+  </si>
+  <si>
+    <t>7.jpg</t>
+  </si>
+  <si>
+    <t>8.jpg</t>
+  </si>
+  <si>
+    <t>9.jpg</t>
+  </si>
+  <si>
+    <t>10.jpg</t>
+  </si>
+  <si>
+    <t>11.jpg</t>
+  </si>
+  <si>
+    <t>12.jpg</t>
+  </si>
+  <si>
+    <t>13.jpg</t>
+  </si>
+  <si>
+    <t>14.jpg</t>
+  </si>
+  <si>
+    <t>15.jpg</t>
+  </si>
+  <si>
+    <t>16.jpg</t>
+  </si>
+  <si>
+    <t>17.jpg</t>
+  </si>
+  <si>
+    <t>18.jpg</t>
+  </si>
+  <si>
+    <t>19.jpg</t>
+  </si>
+  <si>
+    <t>20.jpg</t>
   </si>
 </sst>
 </file>
@@ -389,7 +452,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +520,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -485,7 +556,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -496,6 +567,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
@@ -929,23 +1001,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="111.88671875" customWidth="1"/>
     <col min="3" max="3" width="32.6640625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="10" max="10" width="29.33203125" customWidth="1"/>
     <col min="12" max="12" width="12.33203125" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>53</v>
@@ -954,18 +1028,23 @@
         <v>52</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="7">
         <v>44635</v>
@@ -973,16 +1052,21 @@
       <c r="D2">
         <v>34</v>
       </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="7">
         <v>44859</v>
@@ -990,16 +1074,21 @@
       <c r="D3">
         <v>56</v>
       </c>
+      <c r="E3" t="s">
+        <v>78</v>
+      </c>
       <c r="F3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="7">
         <v>45034</v>
@@ -1007,16 +1096,21 @@
       <c r="D4">
         <v>6</v>
       </c>
+      <c r="E4" t="s">
+        <v>80</v>
+      </c>
       <c r="F4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7">
         <v>45076</v>
@@ -1024,16 +1118,21 @@
       <c r="D5">
         <v>8</v>
       </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
       <c r="F5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7">
         <v>45118</v>
@@ -1041,16 +1140,21 @@
       <c r="D6">
         <v>9</v>
       </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C7" s="7">
         <v>44640</v>
@@ -1058,16 +1162,19 @@
       <c r="D7">
         <v>70</v>
       </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="7">
         <v>44783</v>
@@ -1075,16 +1182,19 @@
       <c r="D8">
         <v>90</v>
       </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
       <c r="F8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C9" s="7">
         <v>44788</v>
@@ -1092,16 +1202,19 @@
       <c r="D9">
         <v>80</v>
       </c>
+      <c r="E9" t="s">
+        <v>85</v>
+      </c>
       <c r="F9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10" s="7">
         <v>44594</v>
@@ -1109,16 +1222,19 @@
       <c r="D10">
         <v>78</v>
       </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
       <c r="F10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="7">
         <v>45171</v>
@@ -1126,16 +1242,19 @@
       <c r="D11">
         <v>78</v>
       </c>
+      <c r="E11" t="s">
+        <v>87</v>
+      </c>
       <c r="F11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="7">
         <v>45146</v>
@@ -1143,16 +1262,19 @@
       <c r="D12">
         <v>67</v>
       </c>
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
       <c r="F12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C13" s="7">
         <v>45228</v>
@@ -1160,16 +1282,19 @@
       <c r="D13">
         <v>56</v>
       </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
       <c r="F13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="7">
         <v>45227</v>
@@ -1177,16 +1302,19 @@
       <c r="D14">
         <v>45</v>
       </c>
+      <c r="E14" t="s">
+        <v>90</v>
+      </c>
       <c r="F14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C15" s="7">
         <v>44770</v>
@@ -1194,16 +1322,19 @@
       <c r="D15">
         <v>78</v>
       </c>
+      <c r="E15" t="s">
+        <v>91</v>
+      </c>
       <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="7">
         <v>44715</v>
@@ -1211,8 +1342,11 @@
       <c r="D16">
         <v>67</v>
       </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -1220,7 +1354,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C17" s="7">
         <v>44697</v>
@@ -1228,8 +1362,11 @@
       <c r="D17">
         <v>7</v>
       </c>
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
       <c r="F17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -1237,13 +1374,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C18" s="7">
         <v>45257</v>
       </c>
       <c r="D18">
         <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>94</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -1254,13 +1394,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C19" s="7">
         <v>44729</v>
       </c>
       <c r="D19">
         <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>95</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -1271,7 +1414,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="7">
         <v>44591</v>
@@ -1279,8 +1422,11 @@
       <c r="D20">
         <v>3</v>
       </c>
+      <c r="E20" t="s">
+        <v>96</v>
+      </c>
       <c r="F20">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -1288,7 +1434,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="7">
         <v>45200</v>
@@ -1296,8 +1442,11 @@
       <c r="D21">
         <v>5</v>
       </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
       <c r="F21">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
